--- a/lab000_vlan/netplans/network_ip_plan.xlsx
+++ b/lab000_vlan/netplans/network_ip_plan.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashkirov_av/Soft/OTUS/github/otus-gitnetwork/lab001_vlan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bashkirov_av/Soft/OTUS/github/otus-gitnetwork/lab000_vlan/netplans/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1C51CA0-A8F2-4645-ABE7-BB625B4ECA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F801692F-2699-AB4A-B3C5-DD4BAF808F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{DBDB51FE-6658-DC4B-A337-8406E5D7693C}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{DBDB51FE-6658-DC4B-A337-8406E5D7693C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$K$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>vlan id</t>
   </si>
@@ -73,9 +76,6 @@
     <t>sw2: vlan10</t>
   </si>
   <si>
-    <t>sw2: e0/3</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -109,15 +109,6 @@
     <t>VLAN 10</t>
   </si>
   <si>
-    <t>G0/0/1.10</t>
-  </si>
-  <si>
-    <t>G0/0/1.20</t>
-  </si>
-  <si>
-    <t>G0/0/1.30</t>
-  </si>
-  <si>
     <t>192.168.10.1</t>
   </si>
   <si>
@@ -140,6 +131,24 @@
   </si>
   <si>
     <t>pc-2</t>
+  </si>
+  <si>
+    <t>e0/0.10</t>
+  </si>
+  <si>
+    <t>e0/0.20</t>
+  </si>
+  <si>
+    <t>e0/0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sw2: e0/3 </t>
+  </si>
+  <si>
+    <t>sw1: e0/3</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -225,35 +234,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -262,62 +247,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -633,16 +614,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A86A520-1B3D-474D-8799-04F42765C34E}">
-  <dimension ref="B2:J9"/>
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J9"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="33.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
@@ -662,181 +643,186 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B3" s="11">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="6" t="s">
+    <row r="4" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="10"/>
     </row>
-    <row r="4" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
+    <row r="5" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>21</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+    <row r="6" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B6" s="3">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>27</v>
+      <c r="F9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
-        <v>40</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>28</v>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
